--- a/3_analysis/_model/dataSingleTargetTablet.xlsx
+++ b/3_analysis/_model/dataSingleTargetTablet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="199">
   <si>
     <t>Sub_No</t>
   </si>
@@ -21,12 +21,21 @@
     <t>Accuracy_overall</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Accuracy_easy</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Accuracy_hard</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>No_Sacc_easy_target</t>
   </si>
   <si>
@@ -390,39 +399,75 @@
     <t>Search_time</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Non_search_time</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Fixation_time</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Response_time</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Search_time_easy_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Non_search_time_easy_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Response_time_easy_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Fixation_time_easy_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Search_time_hard_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Non_search_time_hard_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Response_time_hard_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Fixation_time_hard_target</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Prop_Choices_easy_target</t>
   </si>
   <si>
@@ -546,13 +591,25 @@
     <t>No_Trials</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Lost_Time</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>No_excluded_trials</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Accumulated_reward</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -598,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CV20"/>
+  <dimension ref="A1:CV25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="true"/>
@@ -711,298 +768,298 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -1019,184 +1076,184 @@
         <v>0.67283950617283961</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF2" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI2" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK2" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM2" s="0">
         <v>1197.2496274916352</v>
@@ -1235,64 +1292,64 @@
         <v>953.92098456253245</v>
       </c>
       <c r="BY2" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ2" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA2" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB2" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC2" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD2" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE2" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF2" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG2" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH2" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI2" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ2" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK2" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL2" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM2" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN2" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO2" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP2" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ2" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR2" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS2" s="0">
         <v>171</v>
@@ -1321,184 +1378,184 @@
         <v>0.97777777777777786</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN3" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE3" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI3" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ3" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM3" s="0">
         <v>1084.3159492648942</v>
@@ -1537,64 +1594,64 @@
         <v>880.31248119142322</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB3" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC3" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD3" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE3" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF3" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG3" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH3" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI3" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ3" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK3" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL3" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM3" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN3" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO3" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP3" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ3" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR3" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS3" s="0">
         <v>87</v>
@@ -1623,184 +1680,184 @@
         <v>0.58994708994708989</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC4" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD4" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE4" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG4" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI4" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ4" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM4" s="0">
         <v>931.89852372252676</v>
@@ -1839,64 +1896,64 @@
         <v>771.53808099252205</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB4" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC4" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD4" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE4" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF4" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG4" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH4" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI4" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ4" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK4" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL4" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM4" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN4" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO4" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP4" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ4" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR4" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS4" s="0">
         <v>121</v>
@@ -1925,184 +1982,184 @@
         <v>0.84920634920634919</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD5" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE5" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF5" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG5" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH5" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI5" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ5" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK5" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL5" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM5" s="0">
         <v>835.35700734488751</v>
@@ -2141,64 +2198,64 @@
         <v>721.97156198441041</v>
       </c>
       <c r="BY5" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ5" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA5" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB5" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC5" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD5" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE5" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF5" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG5" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH5" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI5" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ5" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK5" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL5" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM5" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN5" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO5" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP5" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ5" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR5" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS5" s="0">
         <v>131</v>
@@ -2227,184 +2284,184 @@
         <v>0.88095238095238093</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC6" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE6" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF6" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH6" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI6" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ6" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK6" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL6" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM6" s="0">
         <v>909.94278555444771</v>
@@ -2443,64 +2500,64 @@
         <v>864.54712461542192</v>
       </c>
       <c r="BY6" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ6" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA6" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB6" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC6" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD6" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE6" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF6" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG6" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH6" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI6" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ6" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK6" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL6" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM6" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN6" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO6" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP6" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ6" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR6" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS6" s="0">
         <v>118</v>
@@ -2529,184 +2586,184 @@
         <v>0.64814814814814814</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC7" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD7" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE7" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF7" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG7" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH7" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI7" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ7" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK7" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL7" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM7" s="0">
         <v>992.53754795274949</v>
@@ -2745,64 +2802,64 @@
         <v>800.87078500677035</v>
       </c>
       <c r="BY7" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ7" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA7" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB7" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC7" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD7" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE7" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF7" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG7" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH7" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI7" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ7" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK7" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL7" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM7" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN7" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO7" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP7" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ7" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR7" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS7" s="0">
         <v>108</v>
@@ -2831,184 +2888,184 @@
         <v>0.72486772486772488</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT8" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC8" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD8" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF8" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG8" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH8" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI8" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ8" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK8" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL8" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM8" s="0">
         <v>1014.8684842775415</v>
@@ -3047,64 +3104,64 @@
         <v>725.00113520041975</v>
       </c>
       <c r="BY8" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ8" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA8" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB8" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC8" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD8" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE8" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF8" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG8" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH8" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI8" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ8" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK8" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL8" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM8" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN8" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO8" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP8" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ8" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR8" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS8" s="0">
         <v>113</v>
@@ -3133,184 +3190,184 @@
         <v>0.82275132275132268</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS9" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT9" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC9" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD9" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE9" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF9" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG9" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH9" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ9" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK9" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL9" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM9" s="0">
         <v>870.96135003686788</v>
@@ -3349,64 +3406,64 @@
         <v>811.40600751947466</v>
       </c>
       <c r="BY9" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ9" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA9" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB9" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC9" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD9" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE9" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF9" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG9" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH9" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI9" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ9" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK9" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL9" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM9" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN9" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO9" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP9" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ9" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR9" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS9" s="0">
         <v>114</v>
@@ -3435,184 +3492,184 @@
         <v>0.80687830687830686</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC10" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD10" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE10" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF10" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG10" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH10" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI10" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ10" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK10" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL10" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM10" s="0">
         <v>913.83858993487661</v>
@@ -3651,64 +3708,64 @@
         <v>707.97284381099473</v>
       </c>
       <c r="BY10" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ10" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA10" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB10" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC10" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD10" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE10" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF10" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG10" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH10" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI10" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ10" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK10" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL10" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM10" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN10" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO10" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP10" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ10" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR10" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS10" s="0">
         <v>121</v>
@@ -3737,184 +3794,184 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ11" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA11" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB11" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD11" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE11" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF11" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG11" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH11" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI11" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ11" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK11" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL11" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM11" s="0">
         <v>1061.3444850725866</v>
@@ -3953,64 +4010,64 @@
         <v>1094.484207365248</v>
       </c>
       <c r="BY11" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ11" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA11" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB11" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC11" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD11" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE11" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF11" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG11" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH11" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI11" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ11" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK11" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL11" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM11" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN11" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO11" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP11" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ11" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR11" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS11" s="0">
         <v>90</v>
@@ -4039,184 +4096,184 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB12" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC12" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD12" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE12" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF12" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG12" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH12" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI12" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ12" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK12" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL12" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM12" s="0">
         <v>1509.563255781422</v>
@@ -4255,64 +4312,64 @@
         <v>1242.7261515899943</v>
       </c>
       <c r="BY12" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ12" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA12" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB12" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC12" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD12" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE12" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF12" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG12" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH12" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI12" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ12" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK12" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL12" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM12" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN12" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO12" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP12" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ12" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR12" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS12" s="0">
         <v>67</v>
@@ -4341,184 +4398,184 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN13" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS13" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA13" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB13" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC13" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD13" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE13" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF13" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG13" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH13" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ13" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK13" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL13" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM13" s="0">
         <v>998.82716942379648</v>
@@ -4557,64 +4614,64 @@
         <v>924.45379274862762</v>
       </c>
       <c r="BY13" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ13" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA13" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB13" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC13" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD13" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE13" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF13" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG13" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH13" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI13" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ13" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK13" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL13" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM13" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN13" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO13" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP13" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ13" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR13" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS13" s="0">
         <v>107</v>
@@ -4643,184 +4700,184 @@
         <v>0.91468253968253976</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK14" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO14" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA14" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB14" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC14" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD14" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE14" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF14" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG14" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI14" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ14" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK14" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL14" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM14" s="0">
         <v>778.21503752795445</v>
@@ -4859,64 +4916,64 @@
         <v>570.27808020985321</v>
       </c>
       <c r="BY14" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ14" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA14" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB14" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC14" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD14" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE14" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF14" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG14" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH14" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI14" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ14" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK14" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL14" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM14" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN14" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO14" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP14" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ14" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR14" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS14" s="0">
         <v>139</v>
@@ -4945,184 +5002,184 @@
         <v>0.82592592592592595</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK15" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO15" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ15" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA15" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB15" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC15" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD15" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE15" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF15" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG15" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ15" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK15" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL15" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM15" s="0">
         <v>1110.5720069219985</v>
@@ -5161,64 +5218,64 @@
         <v>921.11055321163599</v>
       </c>
       <c r="BY15" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ15" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA15" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB15" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC15" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD15" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE15" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF15" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG15" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH15" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI15" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ15" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK15" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL15" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM15" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN15" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO15" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP15" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ15" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR15" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS15" s="0">
         <v>103</v>
@@ -5247,184 +5304,184 @@
         <v>0.84444444444444444</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK16" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY16" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ16" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA16" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB16" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC16" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD16" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE16" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF16" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG16" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH16" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ16" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK16" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL16" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM16" s="0">
         <v>1132.1229458170594</v>
@@ -5463,64 +5520,64 @@
         <v>901.18086426346395</v>
       </c>
       <c r="BY16" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ16" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA16" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB16" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC16" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD16" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE16" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF16" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG16" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH16" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI16" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ16" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK16" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL16" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM16" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN16" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO16" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP16" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ16" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR16" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS16" s="0">
         <v>105</v>
@@ -5549,184 +5606,184 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK17" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN17" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO17" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT17" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY17" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ17" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA17" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB17" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC17" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD17" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE17" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF17" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG17" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH17" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI17" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ17" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK17" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL17" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM17" s="0">
         <v>912.61604157459669</v>
@@ -5765,64 +5822,64 @@
         <v>910.49486531151661</v>
       </c>
       <c r="BY17" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ17" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA17" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB17" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC17" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD17" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE17" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF17" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG17" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH17" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI17" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ17" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK17" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL17" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM17" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN17" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO17" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP17" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ17" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR17" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS17" s="0">
         <v>107</v>
@@ -5851,184 +5908,184 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK18" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY18" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ18" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA18" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB18" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC18" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD18" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE18" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF18" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG18" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH18" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ18" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL18" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM18" s="0">
         <v>797.11215060177744</v>
@@ -6067,64 +6124,64 @@
         <v>737.94883773440392</v>
       </c>
       <c r="BY18" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ18" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA18" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB18" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC18" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD18" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE18" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF18" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG18" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH18" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI18" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ18" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK18" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL18" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM18" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN18" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO18" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP18" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ18" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR18" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS18" s="0">
         <v>128</v>
@@ -6153,184 +6210,184 @@
         <v>0.89285714285714279</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK19" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AO19" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AP19" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AQ19" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR19" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT19" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW19" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AX19" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AY19" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AZ19" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BA19" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB19" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BC19" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD19" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BE19" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BF19" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BG19" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH19" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI19" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BJ19" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BK19" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BL19" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BM19" s="0">
         <v>833.49160310405455</v>
@@ -6369,64 +6426,64 @@
         <v>736.43935909346919</v>
       </c>
       <c r="BY19" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="BZ19" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CA19" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CB19" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CC19" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CD19" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CE19" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CF19" s="0" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CG19" s="0" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CH19" s="0" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CI19" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CJ19" s="0" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CK19" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="CL19" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="CM19" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CN19" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="CO19" s="0" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="CP19" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="CQ19" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="CR19" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="CS19" s="0">
         <v>127</v>
@@ -6445,302 +6502,1812 @@
       <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
-        <v>0.51331908831908835</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0.47792022792022792</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.54772079772079774</v>
+      <c r="B20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV20" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB20" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL20" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR20" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS20" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT20" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV20" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ20" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB20" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC20" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF20" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG20" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH20" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI20" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ20" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK20" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM20" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO20" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP20" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ20" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR20" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT20" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="CU20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV20" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX21" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC21" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD21" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL21" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ21" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS21" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT21" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV21" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB21" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC21" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD21" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE21" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF21" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH21" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI21" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK21" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL21" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM21" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP21" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR21" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS21" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT21" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="CU21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV21" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="B22" s="0">
+        <v>0.88720538720538711</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.80740740740740735</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY22" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC22" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM22" s="0">
+        <v>1050.3045985741273</v>
+      </c>
+      <c r="BN22" s="0">
+        <v>1664.6480437884575</v>
+      </c>
+      <c r="BO22" s="0">
+        <v>846.84987180562132</v>
+      </c>
+      <c r="BP22" s="0">
+        <v>817.44455468395211</v>
+      </c>
+      <c r="BQ22" s="0">
+        <v>1039.436642660035</v>
+      </c>
+      <c r="BR22" s="0">
+        <v>1545.5927822320753</v>
+      </c>
+      <c r="BS22" s="0">
+        <v>699.76134918312039</v>
+      </c>
+      <c r="BT22" s="0">
+        <v>845.09513996265548</v>
+      </c>
+      <c r="BU22" s="0">
+        <v>1045.9021994187719</v>
+      </c>
+      <c r="BV22" s="0">
+        <v>1783.7664303965953</v>
+      </c>
+      <c r="BW22" s="0">
+        <v>935.6790021623541</v>
+      </c>
+      <c r="BX22" s="0">
+        <v>848.08742823424154</v>
+      </c>
+      <c r="BY22" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD22" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH22" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI22" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ22" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL22" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM22" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN22" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO22" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP22" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ22" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS22" s="0">
+        <v>106</v>
+      </c>
+      <c r="CT22" s="0">
+        <v>0</v>
+      </c>
+      <c r="CU22" s="0">
+        <v>0</v>
+      </c>
+      <c r="CV22" s="0">
+        <v>1.6399999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA23" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC23" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE23" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ23" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL23" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS23" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT23" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX23" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY23" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ23" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA23" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB23" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC23" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD23" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG23" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI23" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK23" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL23" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM23" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN23" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO23" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ23" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="CU23" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV23" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="O20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z20" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB20" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN20" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT20" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU20" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX20" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ20" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC20" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD20" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE20" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF20" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG20" s="0" t="s">
+      <c r="B24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA24" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB24" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC24" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD24" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH24" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI24" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ24" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK24" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM24" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS24" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT24" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV24" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX24" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY24" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ24" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA24" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB24" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE24" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF24" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH24" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK24" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM24" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO24" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP24" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ24" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR24" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS24" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT24" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="CU24" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV24" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.85897435897435903</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.98412698412698418</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.73809523809523803</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY25" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC25" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD25" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH25" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ25" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM25" s="0">
+        <v>914.36595363835409</v>
+      </c>
+      <c r="BN25" s="0">
+        <v>1766.5794760071522</v>
+      </c>
+      <c r="BO25" s="0">
+        <v>671.68226184328739</v>
+      </c>
+      <c r="BP25" s="0">
+        <v>1094.8972141638651</v>
+      </c>
+      <c r="BQ25" s="0">
+        <v>941.37135549433651</v>
+      </c>
+      <c r="BR25" s="0">
+        <v>1601.4755453386906</v>
+      </c>
+      <c r="BS25" s="0">
+        <v>937.8365997288862</v>
+      </c>
+      <c r="BT25" s="0">
+        <v>663.63894560980418</v>
+      </c>
+      <c r="BU25" s="0">
+        <v>877.62297605431775</v>
+      </c>
+      <c r="BV25" s="0">
+        <v>1933.5561322147332</v>
+      </c>
+      <c r="BW25" s="0">
+        <v>1254.426192353335</v>
+      </c>
+      <c r="BX25" s="0">
+        <v>679.1299398613985</v>
+      </c>
+      <c r="BY25" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ25" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA25" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB25" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC25" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD25" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF25" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG25" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH25" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI25" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CM25" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO25" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP25" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="CR25" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS25" s="0">
         <v>113</v>
       </c>
-      <c r="BH20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI20" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ20" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK20" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM20" s="0">
-        <v>1359.1526110967002</v>
-      </c>
-      <c r="BN20" s="0">
-        <v>2599.4387593851111</v>
-      </c>
-      <c r="BO20" s="0">
-        <v>1670.8860262082173</v>
-      </c>
-      <c r="BP20" s="0">
-        <v>1304.1085585086023</v>
-      </c>
-      <c r="BQ20" s="0">
-        <v>1366.5294090906777</v>
-      </c>
-      <c r="BR20" s="0">
-        <v>2622.1934512811945</v>
-      </c>
-      <c r="BS20" s="0">
-        <v>1430.8302689484135</v>
-      </c>
-      <c r="BT20" s="0">
-        <v>1622.2180582228161</v>
-      </c>
-      <c r="BU20" s="0">
-        <v>1440.5443006091648</v>
-      </c>
-      <c r="BV20" s="0">
-        <v>2668.6119768351905</v>
-      </c>
-      <c r="BW20" s="0">
-        <v>1134.048991732855</v>
-      </c>
-      <c r="BX20" s="0">
-        <v>1377.1720727284751</v>
-      </c>
-      <c r="BY20" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ20" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA20" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB20" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="CC20" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="CD20" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE20" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="CF20" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="CG20" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="CH20" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="CI20" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="CJ20" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK20" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="CL20" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM20" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="CN20" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="CO20" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="CP20" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="CQ20" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR20" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="CS20" s="0">
-        <v>226</v>
-      </c>
-      <c r="CT20" s="0">
+      <c r="CT25" s="0">
         <v>0</v>
       </c>
-      <c r="CU20" s="0">
+      <c r="CU25" s="0">
         <v>0</v>
       </c>
-      <c r="CV20" s="0">
-        <v>0.12</v>
+      <c r="CV25" s="0">
+        <v>1.6200000000000001</v>
       </c>
     </row>
   </sheetData>
